--- a/Pandas_test_excel.xlsx
+++ b/Pandas_test_excel.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
-  <si>
-    <t>Dato</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Navn</t>
   </si>
@@ -40,7 +37,7 @@
     <t>Overflade</t>
   </si>
   <si>
-    <t>Infusions_start</t>
+    <t>Treatment_time_t0</t>
   </si>
   <si>
     <t>Total_væskemængde</t>
@@ -94,6 +91,15 @@
     <t>Sygeplejerske_tid_nine_to_ten_MTX_dose</t>
   </si>
   <si>
+    <t>Hydreringsvæske_reduceret</t>
+  </si>
+  <si>
+    <t>Se_MTX_t23</t>
+  </si>
+  <si>
+    <t>P_kreatin_t23</t>
+  </si>
+  <si>
     <t>Se_MTX_t36</t>
   </si>
   <si>
@@ -115,85 +121,52 @@
     <t>Se_MTX_t42</t>
   </si>
   <si>
-    <t>Første_dosis_caliumfolinat_t42</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Første_dosis_caliumfolinat_t42</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Første_dosis_caliumfolinat_t42</t>
-  </si>
-  <si>
-    <t>Ekstra_dosis_caliumfolinat_t42</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Ekstra_dosis_caliumfolinat_t42</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Ekstra_dosis_caliumfolinat_t42</t>
+    <t>Første_dosis_calciumfolinat_t42</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_navn_Første_dosis_calciumfolinat_t42</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_tid_Første_dosis_calciumfolinat_t42</t>
   </si>
   <si>
     <t>Se_MTX_t48</t>
   </si>
   <si>
-    <t>Første_dosis_caliumfolinat_t48</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Første_dosis_caliumfolinat_t48</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Første_dosis_caliumfolinat_t48</t>
-  </si>
-  <si>
-    <t>Ekstra_dosis_caliumfolinat_t48</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Ekstra_dosis_caliumfolinat_t48</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Ekstra_dosis_caliumfolinat_t48</t>
+    <t>Anden_dosis_calciumfolinat_t48</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_navn_Anden_dosis_calciumfolinat_t48</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_tid_Anden_dosis_calciumfolinat_t48</t>
   </si>
   <si>
     <t>Se_MTX_t54</t>
   </si>
   <si>
-    <t>Første_dosis_caliumfolinat_t54</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Første_dosis_caliumfolinat_t54</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Første_dosis_caliumfolinat_t54</t>
-  </si>
-  <si>
-    <t>Ekstra_dosis_caliumfolinat_t54</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Ekstra_dosis_caliumfolinat_t54</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Ekstra_dosis_caliumfolinat_t54</t>
+    <t>Tredje_dosis_calciumfolinat_t54</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_navn_Tredje_dosis_calciumfolinat_t54</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_tid_Tredje_dosis_calciumfolinat_t54</t>
   </si>
   <si>
     <t>Se_MTX_t66</t>
   </si>
   <si>
-    <t>Første_dosis_caliumfolinat_t66</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Første_dosis_caliumfolinat_t66</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Første_dosis_caliumfolinat_t66</t>
-  </si>
-  <si>
-    <t>Ekstra_dosis_caliumfolinat_t66</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_navn_Ekstra_dosis_caliumfolinat_t66</t>
-  </si>
-  <si>
-    <t>Sygeplejerske_tid_Ekstra_dosis_caliumfolinat_t66</t>
+    <t>P_kreatin_t66</t>
+  </si>
+  <si>
+    <t>Fjerde_dosis_calciumfolinat_t66</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_navn_Fjerde_dosis_calciumfolinat_t66</t>
+  </si>
+  <si>
+    <t>Sygeplejerske_tid_Fjerde_dosis_calciumfolinat_t66</t>
   </si>
 </sst>
 </file>
@@ -551,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:BI1"/>
+  <dimension ref="B1:AZ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:61">
+    <row r="1" spans="2:52">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,33 +683,6 @@
       </c>
       <c r="AZ1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
